--- a/tests/dummy_student_data.xlsx
+++ b/tests/dummy_student_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf09d77fea5249cc/NP/Year 3.2/DevOps/testing/Flask4Python/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bf09d77fea5249cc/NP/Year 3.2/DevOps/Git Projects/DevOps_Oct2022_Team4_Assignment/excel_files_to_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{052B822A-BB87-4F82-8153-8B67F3E75A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A5A9887-EF61-418C-9416-70ACACD5565B}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{052B822A-BB87-4F82-8153-8B67F3E75A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36DBADB7-48A7-477C-8371-F85C8629B661}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="4380" windowWidth="17415" windowHeight="9675" xr2:uid="{A13D96F5-40AA-4A95-81D3-1E5055213CF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A13D96F5-40AA-4A95-81D3-1E5055213CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Student_ID</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Unassigned</t>
   </si>
   <si>
-    <t>Pending confirmation</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
     <t>Software Development</t>
   </si>
   <si>
@@ -68,13 +62,61 @@
     <t>Software Engineering, Development</t>
   </si>
   <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>Sum Ting Wong</t>
-  </si>
-  <si>
-    <t>Michael Jack's Son</t>
+    <t>IOS and Android Development</t>
+  </si>
+  <si>
+    <t>Documents, QA Testing and Development</t>
+  </si>
+  <si>
+    <t>S9621745C</t>
+  </si>
+  <si>
+    <t>S9518672A</t>
+  </si>
+  <si>
+    <t>S9348750H</t>
+  </si>
+  <si>
+    <t>S2316221J</t>
+  </si>
+  <si>
+    <t>S6461996I</t>
+  </si>
+  <si>
+    <t>S0194725G</t>
+  </si>
+  <si>
+    <t>S5806960D</t>
+  </si>
+  <si>
+    <t>Law Wen Ming</t>
+  </si>
+  <si>
+    <t>Say De Ming</t>
+  </si>
+  <si>
+    <t>Sheng Shu Qi</t>
+  </si>
+  <si>
+    <t>Bay Yong Quan</t>
+  </si>
+  <si>
+    <t>Chang De Kang</t>
+  </si>
+  <si>
+    <t>Cheong Xuan Ming</t>
+  </si>
+  <si>
+    <t>Lau Kai Feng</t>
+  </si>
+  <si>
+    <t>Wei Jun</t>
+  </si>
+  <si>
+    <t>S2206960D</t>
+  </si>
+  <si>
+    <t>Company_ID</t>
   </si>
 </sst>
 </file>
@@ -130,10 +172,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,21 +471,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D27E27-B554-42B4-B583-D66F690DF968}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,51 +499,123 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>23456789</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>34567890</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>